--- a/biology/Médecine/Membre_supérieur_(anatomie_humaine)/Membre_supérieur_(anatomie_humaine).xlsx
+++ b/biology/Médecine/Membre_supérieur_(anatomie_humaine)/Membre_supérieur_(anatomie_humaine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Membre_sup%C3%A9rieur_(anatomie_humaine)</t>
+          <t>Membre_supérieur_(anatomie_humaine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez l'homme et chez les bipèdes, les membres supérieurs (ou bras dans le langage courant) sont les deux membres reliés au tronc par le biais des épaules.
 Le membre supérieur est en relation directe avec la portion inférieure latérale du cou. Il est relié au tronc grâce à de nombreux muscles et grâce à l’articulation sternoclaviculaire.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Membre_sup%C3%A9rieur_(anatomie_humaine)</t>
+          <t>Membre_supérieur_(anatomie_humaine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dans le langage courant le terme "bras" désigne le membre supérieur dans son ensemble comprenant l'épaule, l'aisselle, le bras (du point de vue anatomique), l'avant-bras et la main.
 En anatomie, on distingue également la partie libre du membre supérieur, également appelé bras dans le langage courant, comprenant les segments suivants : 
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Membre_sup%C3%A9rieur_(anatomie_humaine)</t>
+          <t>Membre_supérieur_(anatomie_humaine)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,9 +565,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Épaule
-L'épaule est le segment du membre supérieur qui relie sa partie libre au thorax au niveau de la ceinture pectorale.
-Elle renferme un complexe articulaire d'une très grande mobilité constituée de trois os auquel on ajoute chez certains auteurs la partie supérieure du sternum[1] :
+          <t>Épaule</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épaule est le segment du membre supérieur qui relie sa partie libre au thorax au niveau de la ceinture pectorale.
+Elle renferme un complexe articulaire d'une très grande mobilité constituée de trois os auquel on ajoute chez certains auteurs la partie supérieure du sternum :
 l'humérus,
 la scapula (ou omoplate),
 la clavicule,
@@ -564,18 +583,123 @@
 l'articulation sterno-claviculaire entre la clavicule et les os du thorax (sternum et la première côte),
 l'articulation scapulo-thoracique entre la scapula et la cage thoracique.
 Elle correspond à la région deltoïdienne.
-Aisselle
-L'aisselle ou creux axillaire est le segment qui relie la partie libre du membre supérieur au thorax et située sous l'épaule.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Membre_supérieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_sup%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Anatomie topographique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aisselle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aisselle ou creux axillaire est le segment qui relie la partie libre du membre supérieur au thorax et située sous l'épaule.
 Elle est limitée en avant et en arrière par les plis axillaires antérieur et postérieur.
 Elle correspond à la région axillaire. Cette région inclut la fosse axillaire qui est une zone de passage entre le thorax, le cou et la partie libre du membre supérieur renfermant un important complexe neurovasculaire.
-Bras
-Le bras, au sens anatomique, est le segment proximal de la partie libre du membre supérieur. Il relie l'épaule et l'aisselle au coude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Membre_supérieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_sup%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Anatomie topographique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bras</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bras, au sens anatomique, est le segment proximal de la partie libre du membre supérieur. Il relie l'épaule et l'aisselle au coude.
 Il comporte un os, l'humérus et trois muscles importants à cet étage : le muscle brachial, le muscle triceps brachial et le muscle biceps brachial. 
 Sa vascularisation dépend de l'artère humérale.
 La région brachiale comporte deux régions : les régions brachiales antérieure et postérieure avec l'humérus comme plan de référence.
 Dans la partie inférieure de la région brachiale antérieure se trouvent les sillons bicipitaux médial et latéral.
-Coude
-Le coude est le segment de la partie libre du membre supérieur reliant le bras à l'avant-bras.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Membre_supérieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_sup%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Anatomie topographique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Coude</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le coude est le segment de la partie libre du membre supérieur reliant le bras à l'avant-bras.
 C'est la zone de flexion et d'extension de l'avant-bras sur le bras. Il participe également dans les mouvements de pronation et de supination de l'avant-bras..
 Il renferme un système articulaire : l'articulation du coude qui met en jeu trois os :
 l'humérus,
@@ -586,13 +710,83 @@
 l'articulation huméro-radiale entre l'humérus et le radius,
 l'articulation radio-ulnaire proximale entre le radius et l'ulna.
 Il constitue la région cubitale constituée des régions cubitales antérieure et postérieure. La région antérieure formant le pli du coude et abritant la fosse cubitale. La région cubitale est la zone de communication neurovasculaire entre le bras et l'avant-bras.
-Avant-bras
-L'avant-bras est le segment de la partie libre du membre supérieur compris entre le coude et le poignet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Membre_supérieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_sup%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Anatomie topographique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Avant-bras</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'avant-bras est le segment de la partie libre du membre supérieur compris entre le coude et le poignet.
 Son squelette est constitué de deux os : l'ulna en dedans et le radius en dehors. Le système articulaire entre ces deux os au niveau du coude et du poignet permet les mouvements de pronation et de supination de l'avant-bras et de la main.
 Il constitue la région antébrachiale divisée en deux régions antébrachiales antérieure et postérieure avec l'ulna et le radius comme plan de référence.
 Ces deux régions sont séparées par le bord médial ou interne de l'avant-bras en dedans, et par le bord latéral ou externe de l'avant-bras en dehors.
-Poignet
-Le poignet est le segment de la partie libre du membre supérieur reliant l'avant-bras à la main.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Membre_supérieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_sup%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Anatomie topographique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Poignet</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poignet est le segment de la partie libre du membre supérieur reliant l'avant-bras à la main.
 Son squelette est constitué des os du carpe de : le scaphoïde, le lunatum, le triquetrum, le pisiforme, le trapèze, le trapézoïde, le capitatum et l'hamatum.
 C'est la zone de flexion, d'extension, d'adduction, d'abduction, de pronation et de supination de la main par rapport à l'avant-bras grâce au système articulaire qu'il contient.
 Ce système articulaire est constitué du radius, de l'ulna et des os du carpe constituant 
@@ -601,8 +795,43 @@
 Il correspond à la région carpienne constituée des régions carpiennes antérieure et postérieure.
 Latéralement se trouve une dépression :la tabatière anatomique.
 C'est la zone de communication entre l'avant-bras et la main et héberge un important complexe neurovasculaire et tendineux avec en particulier dans la région carpienne antérieure le canal carpien.
-Main
-La main est le segment terminal de la partie libre du membre supérieur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Membre_supérieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_sup%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Anatomie topographique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Main</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La main est le segment terminal de la partie libre du membre supérieur.
 Elle est constituée du métacarpe et de cinq doigts qui sont de dehors en dedans : le pouce, l'index, le médius, l'annulaire et l'auriculaire.
 Le squelette de la région métacarpienne est constitué des cinq métacarpiens.
 Le squelette des doigts est constitué de trois phalanges pour les doigts dit longs : l'index, le médius, l'annulaire et l'auriculaire. Le pouce ne possédant que deux phalanges
@@ -621,40 +850,87 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Membre_sup%C3%A9rieur_(anatomie_humaine)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Membre_sup%C3%A9rieur_(anatomie_humaine)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Membre_supérieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_sup%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Anatomie descriptive</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ostéologie
-Ceinture du membre supérieur
-Clavicule
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ostéologie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Ceinture du membre supérieur</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clavicule
 La clavicule est convexe en avant dans ses deux tiers médiaux, et concave en avant dans son tiers latéral. Elle s'articule médialement avec le sternum et la première côte, formant l'articulation sterno-costo-claviculaire (renforcée par un disque), et latéralement avec l'acromion de la scapula qui passent en voûte au-dessus de l’articulation glénohumérale de la scapula et au-dessus de la tête de l’humerus. Elle est palpable à la base du cou, et sa face interne est directement en rapport avec les vaisseaux (comme l'artère subclavière) qui avec sa veine satellite passe du tronc au membre supérieur en passant au-dessus de la partie supérieure de la 1re côte pour rejoindre l’ouverture axillaire ainsi que la fosse axillaire pour rejoindre le membre supérieur.
 Scapula
 La scapula (ou omoplate) est un os plat et large, situé à la face dorsale du gril costal. Elle est en rapport avec les sept premières côtes. À sa face postérieure, elle présente au quart supérieur une saillie palpable, dirigée en haut et en dehors : l'épine de la scapula. Cette épine délimite deux fosses : la fosse supra-épineuse et la fosse infra-épineuse, où se situent de nombreux muscles adducteurs et rotateurs du bras. Elle présente également, latéralement, deux processus : l'acromion et le coracoïde. À l'extrémité latérale de l'épine se situe l'acromion, qui s'articule avec la partie latérale de la clavicule. Au-dessus de la glène (la fosse où s'insère la tête de l'humérus, formant l'articulation gléno-humérale) se situe le processus coracoïde, palpable au-dessus de l'aisselle, et où s'insèrent notamment le chef court du biceps brachial et le muscle coracobrachial.
-Partie libre du membre supérieur
-Humérus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Membre_supérieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_sup%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ostéologie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Partie libre du membre supérieur</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Humérus
 L'humérus est l'os unique du bras. Il s'articule avec plusieurs os :
 avec l'épaule : articulation gléno-humérale
 avec le radius et l’ulna.
@@ -675,10 +951,84 @@
 Phalanges
 Les phalanges proximale, intermédiaire et distale constituent le squelette de chacun des cinq doigts (sauf le premier qui ne comporte que deux phalanges).
 Des petits os surnuméraires, inconstants et variables d'un individu à l'autre, sont présents dans le squelette de la main, ce sont les os sésamoïdes.
-Articulations
-Le membre supérieur comporte trois zones articulaires principales et les articulations de la main.
-Épaule
-L'épaule est composée de cinq articulations différentes impliquant la scapula, l'humérus, la clavicule et le sternum :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Membre_supérieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_sup%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Articulations</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le membre supérieur comporte trois zones articulaires principales et les articulations de la main.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Membre_supérieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_sup%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Articulations</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Épaule</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>L'épaule est composée de cinq articulations différentes impliquant la scapula, l'humérus, la clavicule et le sternum :
 L'articulation gléno-humérale, entre la scapula et la tête humérale. C'est une articulation mobile (diarthrose) de type énarthrose. Le faible recouvrement de la tête humérale par la cavité glénoïdale est compensé par la présence d'éléments de renforcement :
 Le bourrelet glénoïdal : anneau fibro-cartilagineux qui repose sur le bord de la cavité glénoïdale et permet d’en augmenter la surface et la profondeur.
 Les ligaments gléno-huméral, coraco-huméral et acromio-coracoïdien.
@@ -686,9 +1036,47 @@
 L'articulation acromio-claviculaire.
 L'articulation sterno-claviculaire.
 L'articulation scapulo-thoracique.
-La bourse deltoïdienne, bourse de glissement entre le deltoïde et la tête humérale.
-Coude
-Le coude comporte trois articulations impliquant la trochlée et le capitulum huméraux, l'incisure ulnaire et la tête radiale :
+La bourse deltoïdienne, bourse de glissement entre le deltoïde et la tête humérale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Membre_supérieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_sup%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Articulations</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Coude</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le coude comporte trois articulations impliquant la trochlée et le capitulum huméraux, l'incisure ulnaire et la tête radiale :
 L'articulation huméro-ulnaire (diarthrose de type trochléen).
 L'articulation huméro-radiale (diarthrose de type énarthrose).
 L'articulation radio-ulnaire proximale (diarthrose de type trochoïde).
@@ -701,19 +1089,131 @@
 La congruence osseuse et notamment le processus olécranien de l'ulna venant se loger dans la fosse olécranienne de l'humérus en extension de coude.
 Quelle que soit la position de l'avant-bras, il y a toujours au moins un des faisceaux du ligament collatéral radial et du ligament collatéral ulnaire tendu de chaque côté, ce qui explique l'extrême stabilité face au varus et valgus de coude.
 Le coude possède deux axes de mobilité : flexion-extension et prono-supination.
-Poignet
-Le poignet comporte deux niveaux articulaires impliquant le radius et les os du carpe :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Membre_supérieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_sup%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Articulations</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Poignet</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poignet comporte deux niveaux articulaires impliquant le radius et les os du carpe :
 L'articulation radio-carpienne (diarthrose de type condylien), entre le radius et les os du carpe,
 L'articulation radio-ulnaire distale entre l'ulna et le radius.
 Le poignet possède deux axes de mobilité : flexion-extension et adduction-abduction.
-Articulations de la main
-L'articulation médio-carpienne, entre la première et la deuxième rangée des os du carpe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Membre_supérieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_sup%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Articulations</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Articulations de la main</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>L'articulation médio-carpienne, entre la première et la deuxième rangée des os du carpe.
 L'articulation de l'os pisiforme, entre le pisiforme et le triquétrum.
 Les articulations carpo-métacarpiennes se situent entre la deuxième rangée des os du carpe et les métacarpiens.
 Les articulations métacarpophalangiennes se situent entre chaque métacarpien et chaque phalange proximale.
-Les articulations interphalangiennes sont les articulations intrinsèques des doigts.
-Muscles
-Muscles du bras : on distingue deux loges :
+Les articulations interphalangiennes sont les articulations intrinsèques des doigts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Membre_supérieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_sup%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Muscles</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Muscles du bras : on distingue deux loges :
 La loge antérieure contient deux plans :
 Plan superficiel : muscle biceps brachial (chef court et chef long)
 Plan profond : muscle brachial et Muscle coracobrachial.
@@ -735,21 +1235,128 @@
 Muscles de la main : vingt muscles occupent la région palmaire de la main. Ils se divisent en trois loges :
 La loge thénare (latérale) : muscles court abducteur du pouce, adducteur du pouce, opposant du pouce et court fléchisseur du pouce.
 loge hypothénarienne (médiale): muscles court palmaire, abducteur du petit doigt, court fléchisseur du petit doigt, opposant du petit doigt.
-La loge palmaire moyenne : contient 4 muscles lombricaux, 3 interosseux palmaires et 4 dorsaux.
-Vaisseaux
-L'artère principale du membre supérieur est l'artère subclavière qui naît de l'aorte directement à gauche et du tronc brachio-céphalique à droite. À son passage dans la région axillaire, elle devient artère axillaire, puis artère brachiale en arrivant dans la région brachiale. Cette artère brachiale va donner de nombreuses branches :
+La loge palmaire moyenne : contient 4 muscles lombricaux, 3 interosseux palmaires et 4 dorsaux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Membre_supérieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_sup%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Vaisseaux</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>L'artère principale du membre supérieur est l'artère subclavière qui naît de l'aorte directement à gauche et du tronc brachio-céphalique à droite. À son passage dans la région axillaire, elle devient artère axillaire, puis artère brachiale en arrivant dans la région brachiale. Cette artère brachiale va donner de nombreuses branches :
 Les artères circonflexes de l'humérus, qui vont former un réseau anastomotique important au niveau du bras.
 L'artère brachiale profonde
 L'artère radiale, qui donne naissance à l'arcade palmaire profonde.
 L'artère interosseuse.
-L'artère ulnaire, qui donne naissance à l'arcade palmaire superficielle.
-Nerfs
-La sensibilité et la motricité du membre supérieur est fournie par le plexus brachial qui est composé des nerfs issus des racines spinales de C5 à T1.
+L'artère ulnaire, qui donne naissance à l'arcade palmaire superficielle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Membre_supérieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_sup%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Nerfs</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sensibilité et la motricité du membre supérieur est fournie par le plexus brachial qui est composé des nerfs issus des racines spinales de C5 à T1.
 Dans le triangle postérieur de la nuque, ces racines forment trois troncs (supérieur, moyen et inférieur) qui entrent dans la région axillaire afin d'innerver les muscles des compartiments antérieurs et postérieurs du membre. Ces troncs échangent des fibres nerveuses pour finalement former, dans la région axillaire, trois faisceaux (médial, latéral et postérieur) qui donneront les principales branches terminales ainsi que de nombreuses collatérales.
-Les muscles du membre supérieur sont innervés de manière segmentaire de telle sorte que les muscles proximaux (supérieurs) sont innervés par les racines C5-C6 et les muscles distaux (inférieurs) par les racines C8-T1[2].
+Les muscles du membre supérieur sont innervés de manière segmentaire de telle sorte que les muscles proximaux (supérieurs) sont innervés par les racines C5-C6 et les muscles distaux (inférieurs) par les racines C8-T1.
 Le plexus brachial est responsable de l'innervation motrice et sensitive du membre supérieur :
-Innervation motrice
-Le nerf axillaire qui sort par l'espace quadrilatère formé par les bords inférieur du petit rond, supérieur du grand rond, latéral du long triceps et médial de l'humérus. Il innerve les muscles deltoïde et petit rond.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Membre_supérieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_sup%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Nerfs</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Innervation motrice</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Le nerf axillaire qui sort par l'espace quadrilatère formé par les bords inférieur du petit rond, supérieur du grand rond, latéral du long triceps et médial de l'humérus. Il innerve les muscles deltoïde et petit rond.
 Le nerf musculocutané innerve les 3 muscles de la région antérieure du bras (biceps, coraco-brachial et brachial).
 Le nerf médian qui suit le trajet de l'artère axillaire (qui deviendra brachiale) et innerve tous les muscles du compartiment antérieur de l'avant-bras à l'exception du fléchisseur ulnaire du carpe et du fléchisseur profond des doigts. Il innerve également les muscles thénariens externes et les premier et deuxième lombricaux.
 Le nerf ulnaire innerve les muscles du compartiment antérieur de l'avant-bras et de la main qui ne sont pas innervés par le nerf médian (fléchisseur ulnaire du carpe, fléchisseur profond des doigts, thénariens internes et hypothénariens).
@@ -757,9 +1364,47 @@
 Des nerfs collatéraux :
 Le nerf supra-scapulaire qui passe dans l'échancrure coracoïdienne, sous le ligament coracoïdien, et innerve les muscle supra-épineux et infra-épineux.
 Les nerfs pectoraux médial (muscles grand et petit pectoraux) et latéral (muscle grand pectoral uniquement).
-Les nerfs subscapulaire inférieur (muscle subscapulaire et grand rond) et supérieur (muscle subscapulaire uniquement).
-Innervation sensitive
-Le nerf axillaire, via le nerf cutané latéral supérieur du bras, donne la sensibilité du moignon de l'épaule.
+Les nerfs subscapulaire inférieur (muscle subscapulaire et grand rond) et supérieur (muscle subscapulaire uniquement).</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Membre_supérieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_sup%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Nerfs</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Innervation sensitive</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Le nerf axillaire, via le nerf cutané latéral supérieur du bras, donne la sensibilité du moignon de l'épaule.
 Le nerf musculocutané, via le nerf cutané latéral de l'avant-bras innerve les faces antérieure et postérieure de la partie latérale de l'avant-bras.
 Le nerf radial possède plusieurs branches cutanées :
 Les nerfs cutanés postérieur et latéral inférieur du bras.
@@ -771,36 +1416,76 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Membre_sup%C3%A9rieur_(anatomie_humaine)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Membre_sup%C3%A9rieur_(anatomie_humaine)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Membre_supérieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_sup%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Terminologie
-Le terme « membre supérieur » ne peut s'appliquer qu'aux espèces bipèdes ou occasionnellement bipèdes. Pour l'ensemble des espèces on emploie plutôt le terme « membre thoracique » pour lever l'ambiguïté posturale de supérieur ou antérieur.
-Rôle général
-Pour la plupart des vertébrés terrestres, le membre thoracique s'est adapté[3] à la quadrupédie et intervient essentiellement dans la locomotion. Sa structure est donc adaptée aux trois principaux modes de locomotion : onguligrade, digitigrade ou plantigrade et optimisée pour la vitesse et l'endurance. Cependant cette optimisation peut être sacrifiée pour d'autres fonctions comme creuser, manipuler des objets ou grimper.
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Terminologie</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme « membre supérieur » ne peut s'appliquer qu'aux espèces bipèdes ou occasionnellement bipèdes. Pour l'ensemble des espèces on emploie plutôt le terme « membre thoracique » pour lever l'ambiguïté posturale de supérieur ou antérieur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Membre_supérieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_sup%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Anatomie comparée</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Rôle général</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour la plupart des vertébrés terrestres, le membre thoracique s'est adapté à la quadrupédie et intervient essentiellement dans la locomotion. Sa structure est donc adaptée aux trois principaux modes de locomotion : onguligrade, digitigrade ou plantigrade et optimisée pour la vitesse et l'endurance. Cependant cette optimisation peut être sacrifiée pour d'autres fonctions comme creuser, manipuler des objets ou grimper.
 </t>
         </is>
       </c>
